--- a/Document/enterprise develop schedule .xlsx
+++ b/Document/enterprise develop schedule .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>模块</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>天/人力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业端-&gt;通关信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有业务线</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -326,27 +338,9 @@
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -356,48 +350,66 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -704,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -722,360 +734,381 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="4">
         <v>42788</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="4">
         <v>42788</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4">
+        <v>42789</v>
+      </c>
+      <c r="E4" s="4">
+        <v>42789</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D5" s="4">
         <v>42789</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E5" s="4">
         <v>42790</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F5" s="10">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="9" t="s">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="4">
         <v>42793</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E6" s="4">
         <v>42795</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F6" s="10">
         <v>3</v>
       </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="9" t="s">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="4">
         <v>42796</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="4">
         <v>42800</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F7" s="10">
         <v>3</v>
       </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="9" t="s">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="4">
         <v>42801</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="4">
         <v>42803</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F8" s="10">
         <v>3</v>
       </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="15" t="s">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D9" s="4">
         <v>42804</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="4">
         <v>42804</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="9" t="s">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="4">
         <v>42807</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="4">
         <v>42807</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F10" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="15" t="s">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="4">
         <v>42808</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="4">
         <v>42808</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F11" s="10">
         <v>1</v>
       </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="9" t="s">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="4">
         <v>42809</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="4">
         <v>42809</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F12" s="10">
         <v>1</v>
       </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="4">
         <v>42810</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="4">
         <v>42811</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F13" s="10">
         <v>2</v>
       </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="9" t="s">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="4">
         <v>42814</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="4">
         <v>42815</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F14" s="10">
         <v>2</v>
       </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="16" t="s">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="4">
         <v>42816</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="4">
         <v>42816</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="4">
         <v>42817</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E16" s="4">
         <v>42817</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F16" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="9" t="s">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D17" s="4">
         <v>42818</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E17" s="4">
         <v>42818</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F17" s="10">
         <v>1</v>
       </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D18" s="4">
         <v>42821</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E18" s="4">
         <v>42822</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F18" s="10">
         <v>2</v>
       </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="9" t="s">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D19" s="4">
         <v>42823</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E19" s="4">
         <v>42824</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F19" s="10">
         <v>2</v>
       </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/enterprise develop schedule .xlsx
+++ b/Document/enterprise develop schedule .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>模块</t>
   </si>
@@ -163,6 +163,14 @@
   </si>
   <si>
     <t>所有业务线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报要素选择 未做</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -363,53 +371,56 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -719,7 +730,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -734,38 +745,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="23"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -786,7 +797,9 @@
       <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -807,13 +820,15 @@
       <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -828,11 +843,13 @@
       <c r="F5" s="10">
         <v>2</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="27" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
@@ -848,8 +865,8 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
@@ -865,8 +882,8 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
@@ -882,8 +899,8 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -901,8 +918,8 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -918,8 +935,8 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -937,8 +954,8 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
@@ -954,10 +971,10 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -975,8 +992,8 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
@@ -992,7 +1009,7 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
@@ -1011,10 +1028,10 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1032,8 +1049,8 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1049,10 +1066,10 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1070,8 +1087,8 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1093,22 +1110,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/enterprise develop schedule .xlsx
+++ b/Document/enterprise develop schedule .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>模块</t>
   </si>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>申报要素选择 未做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间插入：客户服务-》委托服务，两个功能，其中打印条码2/27~3/2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -371,6 +375,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,42 +425,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -727,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -745,38 +749,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="12"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -825,10 +829,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -843,13 +847,13 @@
       <c r="F5" s="10">
         <v>2</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
@@ -865,8 +869,8 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
@@ -882,8 +886,8 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
@@ -899,8 +903,8 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -918,8 +922,8 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -935,8 +939,8 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -954,8 +958,8 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
@@ -971,10 +975,10 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -992,8 +996,8 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1009,7 +1013,7 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
@@ -1028,10 +1032,10 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1049,8 +1053,8 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1066,10 +1070,10 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1087,8 +1091,8 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1108,24 +1112,29 @@
         <v>33</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/enterprise develop schedule .xlsx
+++ b/Document/enterprise develop schedule .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>模块</t>
   </si>
@@ -175,14 +175,26 @@
   </si>
   <si>
     <t>中间插入：客户服务-》委托服务，两个功能，其中打印条码2/27~3/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、数据加载滚动条，头尾不动，内容动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、账册信息要加上账册的启用禁用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、成品单耗的信息输入项目要自动带出下拉列表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,53 +390,53 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -487,7 +499,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,10 +531,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,7 +565,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,14 +740,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.75" style="1" bestFit="1" customWidth="1"/>
@@ -748,41 +758,41 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="24"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="16"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -805,7 +815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -828,11 +838,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -851,9 +861,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="16"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="26"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
@@ -868,9 +878,9 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="16"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="26"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
@@ -885,9 +895,9 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="26"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
@@ -902,9 +912,9 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="26"/>
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -921,9 +931,9 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="14"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="26"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -938,9 +948,9 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="26"/>
+      <c r="B11" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -957,9 +967,9 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="18"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="26"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
@@ -974,11 +984,11 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -995,9 +1005,9 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="27"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1012,8 +1022,8 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="27"/>
       <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
@@ -1031,11 +1041,11 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="27" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1052,9 +1062,9 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1069,11 +1079,11 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1090,9 +1100,9 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1107,34 +1117,49 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/enterprise develop schedule .xlsx
+++ b/Document/enterprise develop schedule .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$H$29</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>模块</t>
   </si>
@@ -70,10 +73,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>变动申请、成品单耗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>查询统计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -86,7 +85,103 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>查询，申报要素选择</t>
+    <t>查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业端-&gt;委托任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报关行-&gt;委托任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询、新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空运进出口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海运进出口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单跟踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：以上仅作开发参考计划安排</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天/人力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业端-&gt;通关信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有业务线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报关行-&gt;委托服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入excel产生报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印条码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报要素选择、成品单耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变动申请</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -94,107 +189,117 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>查询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>受理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业端-&gt;委托任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报关行-&gt;委托任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询、新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改、提交申请</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>空运进出口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海运进出口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单跟踪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：以上仅作开发参考计划安排</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天/人力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业端-&gt;通关信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有业务线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>close</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报要素选择 未做</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间插入：客户服务-》委托服务，两个功能，其中打印条码2/27~3/2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、数据加载滚动条，头尾不动，内容动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、账册信息要加上账册的启用禁用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、成品单耗的信息输入项目要自动带出下拉列表</t>
+    <t>网页局部打印：每一页都需要表头；成品需要有两类表格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需根据备案关区+HS编码根据编号拆分生成申报要素控件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对现有备案信息才可以申请，并且申请中的不可以重复申请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分四个页签，生效中的，申请记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on-going</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台网站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，首页处理飞力达的共计2处：hear及foot，去掉飞力达字样；
+2，常用下载：一期的搬过来，直接写一个静态网页
+3，QQ群建立：点击QQ，弹出二维码、一个连接，若是电脑登录的话，就可以直接点击连接弹出QQ对话框
+4，微信群的建立：点击微信，弹出二维码
+5，侧边栏的建立：QQ群，微信群
+6，新闻公告：不用滚动，只显示前几笔，位置放到最上面
+7，加更多按钮，添加更多的界面，这个界面列出所有新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单权限管控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别管理：新增类别维护，需要有二级及更深子级别维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯发布：发布新闻，并拥有增删改查的权限；显示所有新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单权限管控，需要根据不同账号显示对应菜单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资讯管理：左边需要展示类别树形结构菜单
+1，新增栏位：发布日期、本文来源
+2，是否发布默认为不发布，页面不显示这个栏位
+3，列表只展示未发布的资讯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻首页展示一级分类；更多界面，需要同时展示子类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量维护、提交申请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账册信息要加上账册的启用禁用
+成品单耗的信息输入项目要自动带出下拉列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何桂勤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高仁同：需要按照生成方式重新修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何桂勤，高仁同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高仁同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>waiting</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,7 +357,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,8 +376,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -352,6 +463,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -359,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,8 +509,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,38 +548,74 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -499,7 +678,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,9 +710,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,6 +745,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -740,59 +921,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="78.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="6" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="78.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
-      <c r="C2" s="13"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -811,19 +1000,21 @@
       <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4">
         <v>42789</v>
@@ -834,332 +1025,633 @@
       <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
+      <c r="G4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="4">
-        <v>42789</v>
+        <v>42790</v>
       </c>
       <c r="E5" s="4">
         <v>42790</v>
       </c>
       <c r="F5" s="10">
-        <v>2</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="26"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="4">
         <v>42793</v>
       </c>
       <c r="E6" s="4">
-        <v>42795</v>
+        <v>42796</v>
       </c>
       <c r="F6" s="10">
-        <v>3</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="26"/>
-      <c r="B7" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4">
+        <v>42789</v>
+      </c>
+      <c r="E7" s="4">
+        <v>42790</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4">
+        <v>42793</v>
+      </c>
+      <c r="E8" s="4">
         <v>42796</v>
       </c>
-      <c r="E7" s="4">
-        <v>42800</v>
-      </c>
-      <c r="F7" s="10">
-        <v>3</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="26"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4">
-        <v>42801</v>
-      </c>
-      <c r="E8" s="4">
-        <v>42803</v>
-      </c>
       <c r="F8" s="10">
-        <v>3</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="26"/>
-      <c r="B9" s="22" t="s">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4">
-        <v>42804</v>
+        <v>42797</v>
       </c>
       <c r="E9" s="4">
         <v>42804</v>
       </c>
       <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="26"/>
-      <c r="B10" s="23"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="4">
+        <v>42800</v>
+      </c>
+      <c r="E10" s="4">
+        <v>42803</v>
+      </c>
+      <c r="F10" s="10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4">
         <v>42807</v>
       </c>
-      <c r="E10" s="4">
-        <v>42807</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="E11" s="4">
+        <v>42809</v>
+      </c>
+      <c r="F11" s="10">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="39">
+        <v>42821</v>
+      </c>
+      <c r="E12" s="39">
+        <v>42822</v>
+      </c>
+      <c r="F12" s="47">
+        <v>2</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="47">
+        <v>2</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40">
         <v>1</v>
       </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="26"/>
-      <c r="B11" s="22" t="s">
+      <c r="G13" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="40">
+        <v>5</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40">
+        <v>1</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="40">
+        <v>6</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40">
+        <v>1</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="40">
+        <v>3</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40">
+        <v>1</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="40">
+        <v>4</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="31">
+        <v>42818</v>
+      </c>
+      <c r="E17" s="31">
+        <v>42821</v>
+      </c>
+      <c r="F17" s="32">
+        <v>2</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="32">
+        <v>2</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="39">
+        <v>42822</v>
+      </c>
+      <c r="E18" s="39">
+        <v>42824</v>
+      </c>
+      <c r="F18" s="40">
+        <v>3</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="40">
+        <v>3</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4">
-        <v>42808</v>
-      </c>
-      <c r="E11" s="4">
-        <v>42808</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4">
+        <v>42804</v>
+      </c>
+      <c r="E19" s="4">
+        <v>42804</v>
+      </c>
+      <c r="F19" s="10">
         <v>1</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="26"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4">
-        <v>42809</v>
-      </c>
-      <c r="E12" s="4">
-        <v>42809</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="G19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40">
         <v>1</v>
       </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="G20" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="40">
+        <v>6</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40">
+        <v>1</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="40">
+        <v>7</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40">
+        <v>2</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="40">
+        <v>4</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40">
+        <v>2</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="40">
+        <v>5</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="4">
         <v>42810</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E24" s="4">
         <v>42811</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F24" s="8">
         <v>2</v>
       </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="27"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4">
-        <v>42814</v>
-      </c>
-      <c r="E14" s="4">
-        <v>42815</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="G24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="45">
+        <v>42452</v>
+      </c>
+      <c r="E25" s="45">
+        <v>42453</v>
+      </c>
+      <c r="F25" s="48">
         <v>2</v>
       </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="27"/>
-      <c r="B15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4">
-        <v>42816</v>
-      </c>
-      <c r="E15" s="4">
-        <v>42816</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="G25" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="32">
         <v>1</v>
       </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="4">
-        <v>42817</v>
-      </c>
-      <c r="E16" s="4">
-        <v>42817</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="I25" s="44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="43">
+        <v>42449</v>
+      </c>
+      <c r="E26" s="43">
+        <v>42449</v>
+      </c>
+      <c r="F26" s="8">
         <v>1</v>
       </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4">
-        <v>42818</v>
-      </c>
-      <c r="E17" s="4">
-        <v>42818</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="G26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="43">
+        <v>42449</v>
+      </c>
+      <c r="E27" s="43">
+        <v>42450</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="43">
+        <v>42450</v>
+      </c>
+      <c r="E28" s="43">
+        <v>42451</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="45">
+        <v>42452</v>
+      </c>
+      <c r="E29" s="45">
+        <v>42452</v>
+      </c>
+      <c r="F29" s="48">
         <v>1</v>
       </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="27" t="s">
+      <c r="G29" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="32">
+        <v>1</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="4">
-        <v>42821</v>
-      </c>
-      <c r="E18" s="4">
-        <v>42822</v>
-      </c>
-      <c r="F18" s="10">
-        <v>2</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="4">
-        <v>42823</v>
-      </c>
-      <c r="E19" s="4">
-        <v>42824</v>
-      </c>
-      <c r="F19" s="10">
-        <v>2</v>
-      </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A1:A2"/>
+  <autoFilter ref="G1:H29"/>
+  <mergeCells count="24">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B7:B12"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/enterprise develop schedule .xlsx
+++ b/Document/enterprise develop schedule .xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>模块</t>
   </si>
@@ -272,14 +272,6 @@
   </si>
   <si>
     <t>何桂勤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高仁同：需要按照生成方式重新修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>何桂勤，高仁同</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -481,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,113 +501,128 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -924,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -940,46 +947,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="20"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -1032,13 +1039,13 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="4">
@@ -1057,8 +1064,8 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
@@ -1078,10 +1085,10 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1105,8 +1112,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1128,8 +1135,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1149,8 +1156,8 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1172,8 +1179,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1195,174 +1202,170 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="38" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="13">
         <v>42821</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="13">
         <v>42822</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="51">
         <v>2</v>
       </c>
-      <c r="G12" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="47">
+      <c r="G12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="51">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="18">
+        <v>4</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="18">
+        <v>5</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="18">
         <v>2</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I15" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="41"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18">
         <v>1</v>
       </c>
-      <c r="G13" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="40">
-        <v>5</v>
-      </c>
-      <c r="I13" s="38" t="s">
+      <c r="G16" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="18">
+        <v>3</v>
+      </c>
+      <c r="I16" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="53">
+        <v>42818</v>
+      </c>
+      <c r="E17" s="53">
+        <v>42821</v>
+      </c>
+      <c r="F17" s="49">
+        <v>2</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="49"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="13">
+        <v>42822</v>
+      </c>
+      <c r="E18" s="13">
+        <v>42824</v>
+      </c>
+      <c r="F18" s="14">
+        <v>3</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="14">
         <v>1</v>
       </c>
-      <c r="G14" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="40">
-        <v>6</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40">
-        <v>1</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="40">
-        <v>3</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40">
-        <v>1</v>
-      </c>
-      <c r="G16" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="40">
-        <v>4</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="31">
-        <v>42818</v>
-      </c>
-      <c r="E17" s="31">
-        <v>42821</v>
-      </c>
-      <c r="F17" s="32">
-        <v>2</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="32">
-        <v>2</v>
-      </c>
-      <c r="I17" s="33" t="s">
+      <c r="I18" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="39">
-        <v>42822</v>
-      </c>
-      <c r="E18" s="39">
-        <v>42824</v>
-      </c>
-      <c r="F18" s="40">
-        <v>3</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="40">
-        <v>3</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
@@ -1385,105 +1388,105 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18">
         <v>1</v>
       </c>
-      <c r="G20" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="40">
-        <v>6</v>
-      </c>
-      <c r="I20" s="41" t="s">
+      <c r="G20" s="22" t="s">
         <v>64</v>
       </c>
+      <c r="H20" s="18">
+        <v>4</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="38" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="40">
-        <v>7</v>
-      </c>
-      <c r="I21" s="41" t="s">
+      <c r="G21" s="22" t="s">
         <v>64</v>
       </c>
+      <c r="H21" s="18">
+        <v>5</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18">
         <v>2</v>
       </c>
-      <c r="G22" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="40">
-        <v>4</v>
-      </c>
-      <c r="I22" s="41" t="s">
+      <c r="G22" s="22" t="s">
         <v>64</v>
       </c>
+      <c r="H22" s="18">
+        <v>2</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="38" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18">
         <v>2</v>
       </c>
-      <c r="G23" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="40">
-        <v>5</v>
-      </c>
-      <c r="I23" s="41" t="s">
+      <c r="G23" s="22" t="s">
         <v>64</v>
       </c>
+      <c r="H23" s="18">
+        <v>3</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="4">
@@ -1492,7 +1495,7 @@
       <c r="E24" s="4">
         <v>42811</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="20">
         <v>2</v>
       </c>
       <c r="G24" s="9" t="s">
@@ -1502,47 +1505,43 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="47">
         <v>42452</v>
       </c>
-      <c r="E25" s="45">
-        <v>42453</v>
+      <c r="E25" s="47">
+        <v>42456</v>
       </c>
       <c r="F25" s="48">
         <v>2</v>
       </c>
-      <c r="G25" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="32">
-        <v>1</v>
-      </c>
-      <c r="I25" s="44" t="s">
-        <v>63</v>
-      </c>
+      <c r="G25" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="21">
         <v>42449</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="21">
         <v>42449</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="20">
         <v>1</v>
       </c>
       <c r="G26" s="9" t="s">
@@ -1552,20 +1551,20 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="21">
         <v>42449</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="21">
         <v>42450</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="20">
         <v>2</v>
       </c>
       <c r="G27" s="9" t="s">
@@ -1575,18 +1574,18 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="24" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="21">
         <v>42450</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="21">
         <v>42451</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="20">
         <v>2</v>
       </c>
       <c r="G28" s="9" t="s">
@@ -1596,29 +1595,25 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="44" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="47">
         <v>42452</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="47">
         <v>42452</v>
       </c>
       <c r="F29" s="48">
         <v>1</v>
       </c>
-      <c r="G29" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="32">
-        <v>1</v>
-      </c>
-      <c r="I29" s="44" t="s">
-        <v>61</v>
-      </c>
+      <c r="G29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="49"/>
+      <c r="I29" s="50"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -1628,11 +1623,13 @@
   </sheetData>
   <autoFilter ref="G1:H29"/>
   <mergeCells count="24">
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="I1:I2"/>
@@ -1640,18 +1637,16 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B7:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A7:A16"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/enterprise develop schedule .xlsx
+++ b/Document/enterprise develop schedule .xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$H$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$H$30</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>模块</t>
   </si>
@@ -266,11 +266,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>账册信息要加上账册的启用禁用
-成品单耗的信息输入项目要自动带出下拉列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>何桂勤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -284,6 +279,14 @@
   </si>
   <si>
     <t>waiting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品单耗的信息输入项目要自动带出下拉列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账册信息要加上账册的启用禁用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -535,72 +538,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -615,14 +552,80 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -929,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -947,46 +950,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="29" t="s">
+      <c r="H1" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="30"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="30"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -1039,10 +1042,10 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -1064,8 +1067,8 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
@@ -1085,10 +1088,10 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="47" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1112,8 +1115,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1135,8 +1138,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1156,8 +1159,8 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1179,8 +1182,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1201,59 +1204,55 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="13">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="52"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="30">
         <v>42821</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="30">
         <v>42822</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="23">
         <v>2</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="51">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="G12" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="36" t="s">
-        <v>8</v>
-      </c>
+      <c r="A13" s="52"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="16" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="18">
+      <c r="F13" s="22">
         <v>1</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="18">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="H13" s="22">
+        <v>5</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="39" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -1261,22 +1260,20 @@
         <v>1</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="36" t="s">
-        <v>9</v>
-      </c>
+      <c r="A15" s="52"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -1284,139 +1281,143 @@
         <v>1</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="18">
+        <v>4</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="52"/>
+      <c r="B16" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="13">
+        <v>42823</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="14">
         <v>2</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I17" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="30">
+        <v>42818</v>
+      </c>
+      <c r="E18" s="30">
+        <v>42821</v>
+      </c>
+      <c r="F18" s="27">
+        <v>2</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="13">
+        <v>42822</v>
+      </c>
+      <c r="E19" s="13">
+        <v>42824</v>
+      </c>
+      <c r="F19" s="14">
+        <v>3</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4">
+        <v>42804</v>
+      </c>
+      <c r="E20" s="4">
+        <v>42804</v>
+      </c>
+      <c r="F20" s="10">
         <v>1</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="18">
-        <v>3</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="53">
-        <v>42818</v>
-      </c>
-      <c r="E17" s="53">
-        <v>42821</v>
-      </c>
-      <c r="F17" s="49">
-        <v>2</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="13">
-        <v>42822</v>
-      </c>
-      <c r="E18" s="13">
-        <v>42824</v>
-      </c>
-      <c r="F18" s="14">
-        <v>3</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="14">
-        <v>1</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="4">
-        <v>42804</v>
-      </c>
-      <c r="E19" s="4">
-        <v>42804</v>
-      </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
+      <c r="G20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B21" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="18">
-        <v>4</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -1424,45 +1425,45 @@
         <v>1</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>28</v>
-      </c>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="C23" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -1470,102 +1471,100 @@
         <v>2</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" s="18">
+        <v>2</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18">
+        <v>2</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="18">
         <v>3</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="I24" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B25" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D25" s="4">
         <v>42810</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="4">
         <v>42811</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F25" s="20">
         <v>2</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="46" t="s">
+      <c r="G25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D26" s="25">
         <v>42452</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E26" s="25">
         <v>42456</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F26" s="26">
         <v>2</v>
       </c>
-      <c r="G25" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="G26" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="D26" s="21">
-        <v>42449</v>
-      </c>
-      <c r="E26" s="21">
-        <v>42449</v>
-      </c>
-      <c r="F26" s="20">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="D27" s="21">
         <v>42449</v>
       </c>
       <c r="E27" s="21">
-        <v>42450</v>
+        <v>42449</v>
       </c>
       <c r="F27" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>35</v>
@@ -1573,17 +1572,19 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="11" t="s">
-        <v>57</v>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="D28" s="21">
+        <v>42449</v>
+      </c>
+      <c r="E28" s="21">
         <v>42450</v>
-      </c>
-      <c r="E28" s="21">
-        <v>42451</v>
       </c>
       <c r="F28" s="20">
         <v>2</v>
@@ -1594,42 +1595,66 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="50" t="s">
+    <row r="29" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="21">
+        <v>42450</v>
+      </c>
+      <c r="E29" s="21">
+        <v>42451</v>
+      </c>
+      <c r="F29" s="20">
+        <v>2</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="47">
+      <c r="D30" s="25">
         <v>42452</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E30" s="25">
         <v>42452</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F30" s="26">
         <v>1</v>
       </c>
-      <c r="G29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="G30" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:H29"/>
+  <autoFilter ref="G1:H30"/>
   <mergeCells count="24">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="I1:I2"/>
@@ -1637,16 +1662,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/enterprise develop schedule .xlsx
+++ b/Document/enterprise develop schedule .xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>模块</t>
   </si>
@@ -476,7 +476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -558,74 +558,80 @@
     <xf numFmtId="14" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -934,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -950,46 +956,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="46" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="42"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="42"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -1042,7 +1048,7 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="53" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="33" t="s">
@@ -1067,7 +1073,7 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="34"/>
       <c r="C6" s="8" t="s">
         <v>38</v>
@@ -1088,10 +1094,10 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1115,8 +1121,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1138,8 +1144,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1159,8 +1165,8 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1182,8 +1188,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1205,8 +1211,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="29" t="s">
         <v>64</v>
       </c>
@@ -1226,8 +1232,8 @@
       <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="16" t="s">
         <v>65</v>
       </c>
@@ -1240,38 +1246,40 @@
         <v>63</v>
       </c>
       <c r="H13" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18">
+      <c r="D14" s="13">
+        <v>42825</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14">
         <v>1</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="18">
-        <v>3</v>
-      </c>
-      <c r="I14" s="16" t="s">
+      <c r="G14" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="16" t="s">
         <v>15</v>
       </c>
@@ -1284,63 +1292,61 @@
         <v>63</v>
       </c>
       <c r="H15" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="30">
         <v>42823</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14">
+      <c r="E16" s="30">
+        <v>42823</v>
+      </c>
+      <c r="F16" s="27">
         <v>1</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="14">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>60</v>
-      </c>
+      <c r="G16" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14">
-        <v>1</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="14">
+      <c r="D17" s="30">
+        <v>42824</v>
+      </c>
+      <c r="E17" s="30">
+        <v>42825</v>
+      </c>
+      <c r="F17" s="27">
         <v>2</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>60</v>
-      </c>
+      <c r="G17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="29" t="s">
@@ -1362,32 +1368,28 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="12" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="30">
         <v>42822</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="30">
         <v>42824</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="27">
         <v>3</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>61</v>
-      </c>
+      <c r="G19" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="7" t="s">
         <v>20</v>
       </c>
@@ -1410,10 +1412,10 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="16" t="s">
@@ -1428,15 +1430,15 @@
         <v>63</v>
       </c>
       <c r="H21" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="16" t="s">
         <v>17</v>
       </c>
@@ -1449,40 +1451,42 @@
         <v>63</v>
       </c>
       <c r="H22" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18">
+      <c r="D23" s="13">
+        <v>42824</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14">
         <v>2</v>
       </c>
-      <c r="G23" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="18">
-        <v>2</v>
-      </c>
-      <c r="I23" s="19" t="s">
+      <c r="G23" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="14">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="16" t="s">
         <v>27</v>
       </c>
@@ -1495,7 +1499,7 @@
         <v>63</v>
       </c>
       <c r="H24" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>61</v>
@@ -1548,7 +1552,7 @@
       <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="32" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -1573,8 +1577,8 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -1596,8 +1600,8 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="11" t="s">
         <v>57</v>
       </c>
@@ -1617,8 +1621,8 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="28" t="s">
         <v>55</v>
       </c>
@@ -1645,6 +1649,20 @@
   </sheetData>
   <autoFilter ref="G1:H30"/>
   <mergeCells count="24">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A25:A26"/>
@@ -1655,20 +1673,6 @@
     <mergeCell ref="A7:A17"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/enterprise develop schedule .xlsx
+++ b/Document/enterprise develop schedule .xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>模块</t>
   </si>
@@ -266,19 +266,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>何桂勤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高仁同</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>优先级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>waiting</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -476,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -519,25 +507,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -561,15 +534,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,12 +594,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -596,42 +605,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -941,7 +914,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -956,46 +929,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="46" t="s">
+      <c r="H1" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="47"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -1048,10 +1021,10 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -1073,8 +1046,8 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
@@ -1094,10 +1067,10 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1121,8 +1094,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1144,8 +1117,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1165,8 +1138,8 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1188,8 +1161,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1211,185 +1184,181 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="30">
+      <c r="A12" s="49"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="25">
         <v>42821</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="25">
         <v>42822</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="18">
         <v>2</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="29"/>
+      <c r="G12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="22">
+      <c r="A13" s="49"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="13">
+        <v>42826</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="27">
         <v>1</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="22">
+      <c r="G13" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="49"/>
+      <c r="B14" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="25">
+        <v>42825</v>
+      </c>
+      <c r="E14" s="25">
+        <v>42825</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="49"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="25">
+        <v>42826</v>
+      </c>
+      <c r="E15" s="25">
+        <v>42826</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="49"/>
+      <c r="B16" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="25">
+        <v>42823</v>
+      </c>
+      <c r="E16" s="25">
+        <v>42823</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="25">
+        <v>42824</v>
+      </c>
+      <c r="E17" s="25">
+        <v>42825</v>
+      </c>
+      <c r="F17" s="22">
+        <v>2</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="25">
+        <v>42818</v>
+      </c>
+      <c r="E18" s="25">
+        <v>42821</v>
+      </c>
+      <c r="F18" s="22">
+        <v>2</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="25">
+        <v>42822</v>
+      </c>
+      <c r="E19" s="25">
+        <v>42824</v>
+      </c>
+      <c r="F19" s="22">
         <v>3</v>
       </c>
-      <c r="I13" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="13">
-        <v>42825</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18">
-        <v>1</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="18">
-        <v>2</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="B16" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="30">
-        <v>42823</v>
-      </c>
-      <c r="E16" s="30">
-        <v>42823</v>
-      </c>
-      <c r="F16" s="27">
-        <v>1</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="30">
-        <v>42824</v>
-      </c>
-      <c r="E17" s="30">
-        <v>42825</v>
-      </c>
-      <c r="F17" s="27">
-        <v>2</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="30">
-        <v>42818</v>
-      </c>
-      <c r="E18" s="30">
-        <v>42821</v>
-      </c>
-      <c r="F18" s="27">
-        <v>2</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="30">
-        <v>42822</v>
-      </c>
-      <c r="E19" s="30">
-        <v>42824</v>
-      </c>
-      <c r="F19" s="27">
-        <v>3</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="27"/>
+      <c r="G19" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="22"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="7" t="s">
         <v>20</v>
       </c>
@@ -1412,104 +1381,94 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14">
         <v>1</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="18">
-        <v>3</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>61</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="16" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14">
         <v>1</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="18">
-        <v>4</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>61</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="25">
         <v>42824</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14">
+      <c r="E23" s="25">
+        <v>42825</v>
+      </c>
+      <c r="F23" s="22">
         <v>2</v>
       </c>
-      <c r="G23" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="14">
+      <c r="G23" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="25">
+        <v>42826</v>
+      </c>
+      <c r="E24" s="25">
+        <v>42826</v>
+      </c>
+      <c r="F24" s="22">
         <v>1</v>
       </c>
-      <c r="I23" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18">
-        <v>2</v>
-      </c>
       <c r="G24" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="18">
-        <v>2</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>61</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="30" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -1521,7 +1480,7 @@
       <c r="E25" s="4">
         <v>42811</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="16">
         <v>2</v>
       </c>
       <c r="G25" s="9" t="s">
@@ -1531,28 +1490,28 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="24" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="20">
         <v>42452</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="20">
         <v>42456</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="21">
         <v>2</v>
       </c>
-      <c r="G26" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="G26" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="43" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -1561,13 +1520,13 @@
       <c r="C27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="17">
         <v>42449</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="17">
         <v>42449</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="16">
         <v>1</v>
       </c>
       <c r="G27" s="9" t="s">
@@ -1577,20 +1536,20 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="17">
         <v>42449</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="17">
         <v>42450</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="16">
         <v>2</v>
       </c>
       <c r="G28" s="9" t="s">
@@ -1600,18 +1559,18 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="17">
         <v>42450</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="17">
         <v>42451</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="16">
         <v>2</v>
       </c>
       <c r="G29" s="9" t="s">
@@ -1621,25 +1580,25 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="28" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="20">
         <v>42452</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="20">
         <v>42452</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="21">
         <v>1</v>
       </c>
-      <c r="G30" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="G30" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -1649,20 +1608,6 @@
   </sheetData>
   <autoFilter ref="G1:H30"/>
   <mergeCells count="24">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A25:A26"/>
@@ -1673,6 +1618,20 @@
     <mergeCell ref="A7:A17"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/enterprise develop schedule .xlsx
+++ b/Document/enterprise develop schedule .xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Require" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$H$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Require!$G$1:$H$30</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>模块</t>
   </si>
@@ -202,10 +202,6 @@
   </si>
   <si>
     <t>分四个页签，生效中的，申请记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>on-going</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -340,7 +336,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,12 +352,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,18 +485,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,8 +512,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,68 +578,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -913,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -929,10 +907,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="38" t="s">
@@ -949,15 +927,15 @@
         <v>34</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="39"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1021,10 +999,10 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -1046,8 +1024,8 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
@@ -1067,10 +1045,10 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1094,8 +1072,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1117,8 +1095,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1138,8 +1116,8 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1161,8 +1139,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1184,181 +1162,183 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="24" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="21">
+        <v>42821</v>
+      </c>
+      <c r="E12" s="21">
+        <v>42822</v>
+      </c>
+      <c r="F12" s="14">
+        <v>2</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D13" s="21">
+        <v>42826</v>
+      </c>
+      <c r="E13" s="21">
+        <v>42826</v>
+      </c>
+      <c r="F13" s="23">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="21">
+        <v>42825</v>
+      </c>
+      <c r="E14" s="21">
+        <v>42825</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="21">
+        <v>42826</v>
+      </c>
+      <c r="E15" s="21">
+        <v>42826</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="21">
+        <v>42823</v>
+      </c>
+      <c r="E16" s="21">
+        <v>42823</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="21">
+        <v>42824</v>
+      </c>
+      <c r="E17" s="21">
+        <v>42825</v>
+      </c>
+      <c r="F17" s="18">
+        <v>2</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="21">
+        <v>42818</v>
+      </c>
+      <c r="E18" s="21">
         <v>42821</v>
       </c>
-      <c r="E12" s="25">
+      <c r="F18" s="18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="21">
         <v>42822</v>
       </c>
-      <c r="F12" s="18">
-        <v>2</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="13">
-        <v>42826</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="27">
-        <v>1</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="25">
-        <v>42825</v>
-      </c>
-      <c r="E14" s="25">
-        <v>42825</v>
-      </c>
-      <c r="F14" s="22">
-        <v>1</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="25">
-        <v>42826</v>
-      </c>
-      <c r="E15" s="25">
-        <v>42826</v>
-      </c>
-      <c r="F15" s="22">
-        <v>1</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="25">
-        <v>42823</v>
-      </c>
-      <c r="E16" s="25">
-        <v>42823</v>
-      </c>
-      <c r="F16" s="22">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="25">
+      <c r="E19" s="21">
         <v>42824</v>
       </c>
-      <c r="E17" s="25">
-        <v>42825</v>
-      </c>
-      <c r="F17" s="22">
-        <v>2</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="25">
-        <v>42818</v>
-      </c>
-      <c r="E18" s="25">
-        <v>42821</v>
-      </c>
-      <c r="F18" s="22">
-        <v>2</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="25">
-        <v>42822</v>
-      </c>
-      <c r="E19" s="25">
-        <v>42824</v>
-      </c>
-      <c r="F19" s="22">
+      <c r="F19" s="18">
         <v>3</v>
       </c>
-      <c r="G19" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="22"/>
+      <c r="G19" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="18"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="7" t="s">
         <v>20</v>
       </c>
@@ -1381,98 +1361,106 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14">
+      <c r="D21" s="21">
+        <v>42828</v>
+      </c>
+      <c r="E21" s="21">
+        <v>42829</v>
+      </c>
+      <c r="F21" s="18">
+        <v>2</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="21">
+        <v>42830</v>
+      </c>
+      <c r="E22" s="21">
+        <v>42832</v>
+      </c>
+      <c r="F22" s="18">
+        <v>3</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="21">
+        <v>42824</v>
+      </c>
+      <c r="E23" s="21">
+        <v>42825</v>
+      </c>
+      <c r="F23" s="18">
+        <v>2</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="21">
+        <v>42826</v>
+      </c>
+      <c r="E24" s="21">
+        <v>42826</v>
+      </c>
+      <c r="F24" s="18">
         <v>1</v>
       </c>
-      <c r="G21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14">
-        <v>1</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="25">
-        <v>42824</v>
-      </c>
-      <c r="E23" s="25">
-        <v>42825</v>
-      </c>
-      <c r="F23" s="22">
-        <v>2</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="25">
-        <v>42826</v>
-      </c>
-      <c r="E24" s="25">
-        <v>42826</v>
-      </c>
-      <c r="F24" s="22">
-        <v>1</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="22"/>
+      <c r="G24" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="18"/>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="C25" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="D25" s="4">
         <v>42810</v>
@@ -1480,7 +1468,7 @@
       <c r="E25" s="4">
         <v>42811</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="12">
         <v>2</v>
       </c>
       <c r="G25" s="9" t="s">
@@ -1490,43 +1478,43 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="20">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="16">
         <v>42452</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="16">
         <v>42456</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="17">
         <v>2</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
+      <c r="G26" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
-        <v>48</v>
+      <c r="A27" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="17">
+        <v>55</v>
+      </c>
+      <c r="D27" s="13">
         <v>42449</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="13">
         <v>42449</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="12">
         <v>1</v>
       </c>
       <c r="G27" s="9" t="s">
@@ -1536,20 +1524,20 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="17">
+      <c r="D28" s="13">
         <v>42449</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="13">
         <v>42450</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="12">
         <v>2</v>
       </c>
       <c r="G28" s="9" t="s">
@@ -1559,18 +1547,18 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="17">
+        <v>56</v>
+      </c>
+      <c r="D29" s="13">
         <v>42450</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="13">
         <v>42451</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="12">
         <v>2</v>
       </c>
       <c r="G29" s="9" t="s">
@@ -1580,25 +1568,25 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="20">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="16">
         <v>42452</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="16">
         <v>42452</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="17">
         <v>1</v>
       </c>
-      <c r="G30" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
+      <c r="G30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -1608,6 +1596,20 @@
   </sheetData>
   <autoFilter ref="G1:H30"/>
   <mergeCells count="24">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A25:A26"/>
@@ -1618,20 +1620,6 @@
     <mergeCell ref="A7:A17"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
